--- a/Fall_2020/No_Facets/jaccard_q7_nofacetsfall_all.xlsx
+++ b/Fall_2020/No_Facets/jaccard_q7_nofacetsfall_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rstudio projects\tidy_string_distance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rstudio projects\tidy_string_distance\Fall_2020\No_Facets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935B0294-62E5-4584-B8B3-D1C1D1177F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0CC97F-AEF7-4312-96B8-D9C28A97CB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92A2C342-809E-43E1-88E1-76ABC5F67FDE}"/>
+    <workbookView xWindow="28680" yWindow="750" windowWidth="29040" windowHeight="17640" xr2:uid="{92A2C342-809E-43E1-88E1-76ABC5F67FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="223">
   <si>
     <t>Paper Number</t>
   </si>
@@ -692,6 +692,21 @@
   </si>
   <si>
     <t>Domestic Minor Sex Trafficking</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0BD0EF-6628-478D-86FF-2F7767F137F0}">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1072,7 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,8 +1094,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>49</v>
       </c>
@@ -1102,8 +1123,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>77</v>
       </c>
@@ -1125,8 +1149,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>77</v>
       </c>
@@ -1148,8 +1175,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>109</v>
       </c>
@@ -1171,8 +1201,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>109</v>
       </c>
@@ -1194,8 +1227,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>137</v>
       </c>
@@ -1217,8 +1253,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>143</v>
       </c>
@@ -1240,8 +1279,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>161</v>
       </c>
@@ -1263,8 +1305,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>161</v>
       </c>
@@ -1286,8 +1331,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>171</v>
       </c>
@@ -1309,8 +1357,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>185</v>
       </c>
@@ -1332,8 +1383,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1355,8 +1409,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1378,8 +1435,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1401,8 +1461,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>91</v>
       </c>
@@ -1424,8 +1487,11 @@
       <c r="G16">
         <v>1.1363636E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>161</v>
       </c>
@@ -1447,8 +1513,11 @@
       <c r="G17">
         <v>0.113207547169811</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>45</v>
       </c>
@@ -1470,8 +1539,11 @@
       <c r="G18">
         <v>0.16666666666666699</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>105</v>
       </c>
@@ -1493,8 +1565,11 @@
       <c r="G19">
         <v>0.168831168831169</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>99</v>
       </c>
@@ -1516,8 +1591,11 @@
       <c r="G20">
         <v>0.19402985074626899</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>171</v>
       </c>
@@ -1539,8 +1617,11 @@
       <c r="G21">
         <v>0.19718309859154901</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>137</v>
       </c>
@@ -1562,8 +1643,11 @@
       <c r="G22">
         <v>0.21666666666666701</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>143</v>
       </c>
@@ -1585,8 +1669,11 @@
       <c r="G23">
         <v>0.38888888888888901</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>143</v>
       </c>
@@ -1608,8 +1695,11 @@
       <c r="G24">
         <v>0.48275862068965503</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>87</v>
       </c>
@@ -1632,7 +1722,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>143</v>
       </c>
@@ -1655,7 +1745,7 @@
         <v>0.51111111111111096</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1677,8 +1767,12 @@
       <c r="G27">
         <v>0.52777777777777801</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f>COUNTIF(H2:H24,"Y")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>45</v>
       </c>
@@ -1701,7 +1795,7 @@
         <v>0.55339805825242705</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>37</v>
       </c>
@@ -1724,7 +1818,7 @@
         <v>0.58620689655172398</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>87</v>
       </c>
@@ -1747,7 +1841,7 @@
         <v>0.59649122799999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>59</v>
       </c>
@@ -1770,7 +1864,7 @@
         <v>0.61538461499999997</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
